--- a/subjects/resources/1/it_math/LR1.xlsx
+++ b/subjects/resources/1/it_math/LR1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_math\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12015" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="3" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Задание 3" sheetId="5" r:id="rId3"/>
     <sheet name="Задание 4" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +244,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -281,7 +286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -290,6 +294,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -397,6 +421,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15CE-4D0D-A470-C105C916B7EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -579,7 +608,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -613,7 +642,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -700,6 +728,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8077-42FB-87F3-AD38CCEF61FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -709,7 +742,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="60607872"/>
         <c:axId val="72819456"/>
@@ -762,7 +794,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -791,7 +823,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -884,6 +915,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8009-41C6-A8A0-1A9600A7B495}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -893,7 +929,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="100439936"/>
         <c:axId val="114864512"/>
@@ -946,7 +981,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -975,7 +1010,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1074,6 +1108,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7B9-41EF-A11B-064FB430C04C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1083,7 +1122,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="31337472"/>
         <c:axId val="31381376"/>
@@ -1136,7 +1174,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1170,7 +1208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1198,7 +1235,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="7"/>
-            <c:marker/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln>
@@ -1210,6 +1246,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5AF8-4083-A084-C4A5BD948D25}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -1314,6 +1355,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5AF8-4083-A084-C4A5BD948D25}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1323,7 +1369,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="46970368"/>
         <c:axId val="46971904"/>
@@ -1376,7 +1421,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1405,7 +1450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1492,6 +1536,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EA1-4092-88BE-AB4E29CBD8DA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1501,7 +1550,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="97600640"/>
         <c:axId val="31499008"/>
@@ -1554,7 +1602,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1598,7 +1646,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1613,7 +1660,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1758,6 +1804,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1865,6 +1916,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1972,6 +2028,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2079,6 +2140,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2186,6 +2252,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2293,6 +2364,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2402,6 +2478,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2511,6 +2592,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2620,6 +2706,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2729,6 +2820,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -2838,6 +2934,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-037B-48F9-9447-2506FAB55609}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts>
           <c:bandFmt>
@@ -3230,7 +3331,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3281,7 +3382,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3384,6 +3484,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C1-475E-9D6A-6F8ACBC09CD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3449,6 +3554,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16C1-475E-9D6A-6F8ACBC09CD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3514,6 +3624,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16C1-475E-9D6A-6F8ACBC09CD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts>
           <c:bandFmt>
@@ -4979,7 +5094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6144,7 +6259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
